--- a/public/plugin/xls/Surat Keterangan Domisili Usaha.xlsx
+++ b/public/plugin/xls/Surat Keterangan Domisili Usaha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps desa\public\plugin\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927D9003-D2C7-4ADE-8FA8-CF5D6F05C53D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68E26B2-8951-4934-960E-9D499CFD49A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" xr2:uid="{97369360-FDE9-49F9-B1DC-3B9160B04ED4}"/>
   </bookViews>
@@ -248,46 +248,46 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -661,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C28E0B9-CBCF-4415-8AE6-496673EECDF9}">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30:I30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42:I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -681,75 +681,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H9" s="3"/>
@@ -758,16 +758,16 @@
       <c r="H10" s="3"/>
     </row>
     <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
@@ -777,10 +777,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
@@ -790,10 +790,10 @@
         <v>7</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
@@ -803,10 +803,10 @@
         <v>7</v>
       </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
@@ -816,10 +816,10 @@
         <v>7</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
     </row>
     <row r="17" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1" t="s">
@@ -844,10 +844,10 @@
         <v>7</v>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
     </row>
     <row r="19" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="1" t="s">
@@ -857,10 +857,10 @@
         <v>7</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
     </row>
     <row r="20" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="1" t="s">
@@ -870,23 +870,23 @@
         <v>7</v>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
     </row>
     <row r="21" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
     </row>
     <row r="23" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -896,10 +896,10 @@
       <c r="D24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
     </row>
     <row r="25" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
@@ -908,10 +908,10 @@
       <c r="D25" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
     </row>
     <row r="26" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
@@ -922,10 +922,10 @@
         <v>7</v>
       </c>
       <c r="E26" s="7"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
@@ -934,10 +934,10 @@
       <c r="D27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
     </row>
     <row r="28" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
@@ -946,10 +946,10 @@
       <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
     </row>
     <row r="29" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
@@ -958,10 +958,10 @@
       <c r="D29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
     </row>
     <row r="30" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
@@ -970,10 +970,10 @@
       <c r="D30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
     </row>
     <row r="31" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G31" s="9"/>
@@ -981,72 +981,80 @@
       <c r="I31" s="6"/>
     </row>
     <row r="32" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
     </row>
     <row r="33" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="3:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
     </row>
     <row r="35" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="13"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="10"/>
     </row>
     <row r="37" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
     </row>
     <row r="38" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
     </row>
     <row r="39" spans="3:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="3:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-    </row>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+    </row>
+    <row r="42" spans="3:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+    </row>
+    <row r="43" spans="3:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="G38:I38"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="F25:I25"/>
     <mergeCell ref="F26:I26"/>
@@ -1063,17 +1071,11 @@
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="B11:I11"/>
     <mergeCell ref="B22:I22"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="G41:I41"/>
   </mergeCells>
   <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.62992125984251968" bottom="0.98425196850393704" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" orientation="portrait" r:id="rId1"/>
